--- a/資料/講座整理用.xlsx
+++ b/資料/講座整理用.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ba10952362242a5/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\WebPageDesign01\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{F3C88648-6FA2-4284-AB1F-7F72A89C23BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE03B1BF-2E37-415E-9DF5-EB25F59878AD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD9F09F-5F9E-430C-841C-7808AE31E3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{89756371-52CB-49BE-B462-3EDF278FC0E7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="276">
   <si>
     <t>ブロックチェーン：</t>
     <phoneticPr fontId="2"/>
@@ -870,6 +870,26 @@
   </si>
   <si>
     <t>はじめてのWordPress入門講座【基礎知識・使い方・管理保守・トラブル対応】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Flutter × Firebaseで開発するモバイルアプリ入門</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★★★</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1316,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63E8CE4-0333-4879-A313-D10A65D78BCB}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -2687,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362A25E3-0E8C-4FD6-BE6C-B1524345A17C}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2698,13 +2718,14 @@
     <col min="1" max="1" width="18.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.3984375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="60.3984375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="73.296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="8"/>
+    <col min="4" max="4" width="8.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="112.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.3984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="73.296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
@@ -2715,16 +2736,19 @@
         <v>242</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -2734,17 +2758,18 @@
       <c r="C2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -2754,17 +2779,18 @@
       <c r="C3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -2774,17 +2800,18 @@
       <c r="C4" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -2794,17 +2821,18 @@
       <c r="C5" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -2814,17 +2842,18 @@
       <c r="C6" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -2834,17 +2863,18 @@
       <c r="C7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,17 +2884,18 @@
       <c r="C8" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2875,16 +2906,19 @@
         <v>246</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2895,16 +2929,19 @@
         <v>246</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2915,16 +2952,19 @@
         <v>246</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2935,16 +2975,19 @@
         <v>246</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -2955,16 +2998,19 @@
         <v>246</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -2975,16 +3021,19 @@
         <v>246</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>114</v>
       </c>
@@ -2995,16 +3044,19 @@
         <v>248</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
@@ -3015,16 +3067,19 @@
         <v>248</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -3035,16 +3090,19 @@
         <v>248</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>114</v>
       </c>
@@ -3055,16 +3113,19 @@
         <v>248</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>114</v>
       </c>
@@ -3075,16 +3136,19 @@
         <v>248</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>114</v>
       </c>
@@ -3095,16 +3159,19 @@
         <v>248</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>114</v>
       </c>
@@ -3115,16 +3182,19 @@
         <v>248</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>114</v>
       </c>
@@ -3135,16 +3205,19 @@
         <v>248</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>114</v>
       </c>
@@ -3155,16 +3228,19 @@
         <v>248</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>133</v>
       </c>
@@ -3175,16 +3251,19 @@
         <v>250</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>133</v>
       </c>
@@ -3195,16 +3274,19 @@
         <v>250</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>138</v>
       </c>
@@ -3215,16 +3297,19 @@
         <v>252</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>138</v>
       </c>
@@ -3235,16 +3320,19 @@
         <v>252</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>142</v>
+        <v>273</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>138</v>
       </c>
@@ -3255,16 +3343,19 @@
         <v>252</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>138</v>
       </c>
@@ -3275,16 +3366,19 @@
         <v>252</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>138</v>
       </c>
@@ -3295,16 +3389,19 @@
         <v>252</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -3315,16 +3412,19 @@
         <v>255</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>150</v>
       </c>
@@ -3335,16 +3435,19 @@
         <v>255</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>153</v>
       </c>
@@ -3355,16 +3458,19 @@
         <v>257</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>153</v>
       </c>
@@ -3375,16 +3481,19 @@
         <v>258</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>153</v>
       </c>
@@ -3395,16 +3504,19 @@
         <v>259</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>153</v>
       </c>
@@ -3415,16 +3527,19 @@
         <v>258</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -3435,16 +3550,19 @@
         <v>250</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -3455,16 +3573,19 @@
         <v>250</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>169</v>
       </c>
@@ -3474,17 +3595,18 @@
       <c r="C39" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -3494,17 +3616,18 @@
       <c r="C40" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>169</v>
       </c>
@@ -3514,17 +3637,18 @@
       <c r="C41" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>169</v>
       </c>
@@ -3534,17 +3658,18 @@
       <c r="C42" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>169</v>
       </c>
@@ -3554,17 +3679,18 @@
       <c r="C43" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>169</v>
       </c>
@@ -3574,17 +3700,18 @@
       <c r="C44" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>169</v>
       </c>
@@ -3594,17 +3721,18 @@
       <c r="C45" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>169</v>
       </c>
@@ -3614,17 +3742,18 @@
       <c r="C46" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>169</v>
       </c>
@@ -3634,17 +3763,18 @@
       <c r="C47" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>169</v>
       </c>
@@ -3654,17 +3784,18 @@
       <c r="C48" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>169</v>
       </c>
@@ -3674,17 +3805,18 @@
       <c r="C49" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>169</v>
       </c>
@@ -3694,17 +3826,18 @@
       <c r="C50" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>169</v>
       </c>
@@ -3714,17 +3847,18 @@
       <c r="C51" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>169</v>
       </c>
@@ -3734,17 +3868,18 @@
       <c r="C52" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>169</v>
       </c>
@@ -3754,17 +3889,18 @@
       <c r="C53" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>204</v>
       </c>
@@ -3774,17 +3910,18 @@
       <c r="C54" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>204</v>
       </c>
@@ -3794,17 +3931,18 @@
       <c r="C55" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>204</v>
       </c>
@@ -3814,17 +3952,18 @@
       <c r="C56" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>204</v>
       </c>
@@ -3834,17 +3973,18 @@
       <c r="C57" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>204</v>
       </c>
@@ -3854,17 +3994,18 @@
       <c r="C58" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>204</v>
       </c>
@@ -3874,17 +4015,18 @@
       <c r="C59" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>204</v>
       </c>
@@ -3894,17 +4036,18 @@
       <c r="C60" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>222</v>
       </c>
@@ -3914,17 +4057,18 @@
       <c r="C61" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>222</v>
       </c>
@@ -3934,17 +4078,18 @@
       <c r="C62" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="G62" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>222</v>
       </c>
@@ -3954,17 +4099,18 @@
       <c r="C63" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>229</v>
       </c>
@@ -3974,17 +4120,18 @@
       <c r="C64" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>229</v>
       </c>
@@ -3994,17 +4141,18 @@
       <c r="C65" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>229</v>
       </c>
@@ -4014,17 +4162,18 @@
       <c r="C66" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>229</v>
       </c>
@@ -4034,20 +4183,21 @@
       <c r="C67" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>238</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="F62" r:id="rId1" xr:uid="{971C3A6C-BCB7-426F-BC79-E6EEF52431B8}"/>
+    <hyperlink ref="G62" r:id="rId1" xr:uid="{971C3A6C-BCB7-426F-BC79-E6EEF52431B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
